--- a/data/case1/5/P_device_2.xlsx
+++ b/data/case1/5/P_device_2.xlsx
@@ -62,26 +62,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.036946247011067711</v>
+        <v>-0.077913364554649409</v>
       </c>
       <c r="B1" s="0">
-        <v>0.03694624545537635</v>
+        <v>0.077913363512860337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.034862529650127247</v>
+        <v>0.070532356741148911</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0348625280540861</v>
+        <v>-0.070532357843360774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.07010158364111814</v>
+        <v>-0.084858353277130164</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.070101585164547384</v>
+        <v>0.084858352228724759</v>
       </c>
     </row>
     <row r="4">
